--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.8561</v>
+        <v>9.014799999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.863299999999999</v>
+        <v>6.725699999999998</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.186999999999999</v>
+        <v>5.519299999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.7427</v>
+        <v>-13.93239999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>7.505000000000003</v>
+        <v>7.635500000000002</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.584</v>
+        <v>-11.78070000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,10 +638,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.5482</v>
+        <v>-11.2167</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.607099999999998</v>
+        <v>-7.291699999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.481400000000001</v>
+        <v>-8.432600000000006</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.9902</v>
+        <v>-7.983799999999997</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.70149999999999</v>
+        <v>-14.67429999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.292499999999998</v>
+        <v>7.587799999999996</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.631099999999998</v>
+        <v>-8.6235</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.743799999999998</v>
+        <v>-7.889999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,13 +771,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.717100000000002</v>
+        <v>9.164200000000005</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.09230000000001</v>
+        <v>-12.4567</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.598700000000003</v>
+        <v>-7.878899999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -788,10 +788,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.334200000000003</v>
+        <v>8.885000000000005</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.08290000000001</v>
+        <v>-12.32800000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,10 +808,10 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.65109999999999</v>
+        <v>-12.8274</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.850500000000002</v>
+        <v>-8.1288</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.32590000000001</v>
+        <v>-12.32630000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.873599999999998</v>
+        <v>5.992800000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.740399999999999</v>
+        <v>4.879700000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.303</v>
+        <v>-10.50050000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.793400000000001</v>
+        <v>5.042999999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.209899999999993</v>
+        <v>7.319799999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.89720000000001</v>
+        <v>-11.59790000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.332699999999996</v>
+        <v>-8.268299999999998</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.603299999999994</v>
+        <v>9.220999999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.90880000000001</v>
+        <v>-12.4473</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,10 +1165,10 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.78569999999999</v>
+        <v>-13.60569999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.257999999999997</v>
+        <v>-8.369499999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.94249999999999</v>
+        <v>-13.79839999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.71479999999998</v>
+        <v>-13.62749999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,13 +1213,13 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.037299999999998</v>
+        <v>6.143099999999996</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.41099999999999</v>
+        <v>-13.3097</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.135899999999994</v>
+        <v>-8.366399999999995</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.03789999999999</v>
+        <v>-13.61849999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.255999999999998</v>
+        <v>-8.2372</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.064000000000002</v>
+        <v>5.982300000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.3319</v>
+        <v>-12.4184</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.467400000000002</v>
+        <v>5.4605</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.954099999999999</v>
+        <v>6.143999999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.53759999999999</v>
+        <v>-13.67539999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.411099999999999</v>
+        <v>5.784899999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.717799999999999</v>
+        <v>6.783800000000003</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.4805</v>
+        <v>-12.9755</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.556199999999999</v>
+        <v>5.428500000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.39280000000001</v>
+        <v>-11.6637</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.9852</v>
+        <v>-11.5688</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.630099999999997</v>
+        <v>8.458799999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.257699999999989</v>
+        <v>9.17199999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.362499999999995</v>
+        <v>-7.442299999999993</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.831900000000006</v>
+        <v>8.968600000000006</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.47110000000001</v>
+        <v>-11.15540000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.44279999999999</v>
+        <v>-13.06</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.73629999999999</v>
+        <v>-14.1714</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.657899999999994</v>
+        <v>5.727799999999994</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.6689</v>
+        <v>-11.3111</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.004699999999996</v>
+        <v>-8.181399999999998</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.66680000000001</v>
+        <v>-11.69540000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.756099999999993</v>
+        <v>-8.842899999999997</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.565899999999994</v>
+        <v>-7.768799999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.657899999999997</v>
+        <v>6.762299999999995</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
